--- a/03_analysis_input/stratification_info.xlsx
+++ b/03_analysis_input/stratification_info.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D347"/>
+  <dimension ref="A1:D346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2695,6 +2695,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B140">
+        <v>32</v>
+      </c>
       <c r="C140" t="inlineStr">
         <is>
           <t>male</t>
@@ -2840,7 +2843,7 @@
         </is>
       </c>
       <c r="B150">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2855,7 +2858,7 @@
         </is>
       </c>
       <c r="B151">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -5387,7 +5390,7 @@
         </is>
       </c>
       <c r="B316">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -5407,7 +5410,7 @@
         </is>
       </c>
       <c r="B317">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -5427,7 +5430,7 @@
         </is>
       </c>
       <c r="B318">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -5447,7 +5450,7 @@
         </is>
       </c>
       <c r="B319">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -5487,7 +5490,7 @@
         </is>
       </c>
       <c r="B321">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -5496,7 +5499,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>patient</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5510,7 @@
         </is>
       </c>
       <c r="B322">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -5527,11 +5530,16 @@
         </is>
       </c>
       <c r="B323">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
           <t>female</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
@@ -5542,11 +5550,16 @@
         </is>
       </c>
       <c r="B324">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
@@ -5557,11 +5570,16 @@
         </is>
       </c>
       <c r="B325">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
@@ -5572,11 +5590,16 @@
         </is>
       </c>
       <c r="B326">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
           <t>female</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
@@ -5587,11 +5610,16 @@
         </is>
       </c>
       <c r="B327">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
@@ -5602,11 +5630,16 @@
         </is>
       </c>
       <c r="B328">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
@@ -5617,11 +5650,16 @@
         </is>
       </c>
       <c r="B329">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
           <t>female</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
@@ -5632,11 +5670,16 @@
         </is>
       </c>
       <c r="B330">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
           <t>female</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
@@ -5647,11 +5690,16 @@
         </is>
       </c>
       <c r="B331">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
@@ -5662,11 +5710,16 @@
         </is>
       </c>
       <c r="B332">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
           <t>male</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
@@ -5677,11 +5730,16 @@
         </is>
       </c>
       <c r="B333">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
           <t>male</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
@@ -5692,11 +5750,16 @@
         </is>
       </c>
       <c r="B334">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
           <t>male</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
@@ -5714,6 +5777,11 @@
           <t>male</t>
         </is>
       </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -5729,6 +5797,11 @@
           <t>male</t>
         </is>
       </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -5744,19 +5817,29 @@
           <t>male</t>
         </is>
       </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B338">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
           <t>female</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
@@ -5766,14 +5849,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B339">
-        <v>32</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D339" t="inlineStr">
         <is>
           <t>patient</t>
@@ -5786,6 +5861,14 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B340">
+        <v>25</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
           <t>patient</t>
@@ -5799,7 +5882,7 @@
         </is>
       </c>
       <c r="B341">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -5819,11 +5902,11 @@
         </is>
       </c>
       <c r="B342">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -5839,11 +5922,11 @@
         </is>
       </c>
       <c r="B343">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -5859,11 +5942,11 @@
         </is>
       </c>
       <c r="B344">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -5879,11 +5962,11 @@
         </is>
       </c>
       <c r="B345">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -5909,21 +5992,6 @@
       <c r="D346" t="inlineStr">
         <is>
           <t>patient</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B347">
-        <v>40</v>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>female</t>
         </is>
       </c>
     </row>

--- a/03_analysis_input/stratification_info.xlsx
+++ b/03_analysis_input/stratification_info.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D346"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,20 +360,25 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>vpid</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>project</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>group</t>
         </is>
@@ -382,18 +387,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20006</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>36</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -402,18 +412,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>20008</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>32</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -422,18 +437,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>20009</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>26</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -442,18 +462,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>20012</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>44</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -462,18 +487,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>20013</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>22</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -482,18 +512,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>20014</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>40</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -502,18 +537,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>20015</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>35</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -522,18 +562,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>20016</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>29</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -542,18 +587,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>20017</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>43</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -562,18 +612,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>20018</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>37</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -582,18 +637,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>20020</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>41</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -602,18 +662,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>20021</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>45</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -622,18 +687,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>20022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>47</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -642,18 +712,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>20023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>29</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -662,18 +737,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>20024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>43</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -682,18 +762,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>20025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>50</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -702,18 +787,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>20026</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>55</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -722,18 +812,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>20028</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>20</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -742,18 +837,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>20030</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>28</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -762,18 +862,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>20031</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>35</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -782,18 +887,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>20033</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>54</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -802,18 +912,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>20034</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>21</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -822,18 +937,23 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>20035</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>35</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -842,18 +962,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>20036</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>20</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -862,18 +987,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>20038</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>45</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -882,18 +1012,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>20041</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>39</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -902,18 +1037,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>20042</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>36</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -922,18 +1062,23 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>20043</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>25</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -942,18 +1087,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>20044</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>48</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -962,18 +1112,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>20045</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>29</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -982,18 +1137,23 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>20046</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>51</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1002,18 +1162,23 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>20050</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>40</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -1022,18 +1187,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>20051</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>49</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -1042,18 +1212,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>20052</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>48</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1062,13 +1237,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>20053</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>42</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1077,18 +1257,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>20055</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>40</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1097,18 +1282,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>20056</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>39</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -1117,18 +1307,23 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>20058</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>41</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1137,18 +1332,23 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>20059</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>41</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -1157,18 +1357,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>20060</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>39</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -1177,18 +1382,23 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>20061</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>21</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1197,18 +1407,23 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>20062</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>30</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -1217,18 +1432,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>20063</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>43</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1237,18 +1457,23 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>20064</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>39</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1257,18 +1482,23 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>20065</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>54</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1277,18 +1507,23 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>20067</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>39</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1297,18 +1532,23 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>20069</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>25</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1317,18 +1557,23 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>20070</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>35</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1337,18 +1582,23 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>20072</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>39</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -1357,13 +1607,18 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B51">
+          <t>30001</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C51">
         <v>27</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1372,13 +1627,18 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B52">
+          <t>30003</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C52">
         <v>32</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1387,13 +1647,18 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B53">
+          <t>30005</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C53">
         <v>22</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1402,13 +1667,18 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B54">
+          <t>30006</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C54">
         <v>23</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1417,13 +1687,18 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B55">
+          <t>30007</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C55">
         <v>25</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1432,13 +1707,18 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B56">
+          <t>30008</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C56">
         <v>20</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1447,13 +1727,18 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B57">
+          <t>30009</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C57">
         <v>23</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1462,13 +1747,18 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B58">
+          <t>30010</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C58">
         <v>23</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1477,13 +1767,18 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B59">
+          <t>30011</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C59">
         <v>24</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1492,13 +1787,18 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B60">
+          <t>30013</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C60">
         <v>21</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1507,13 +1807,18 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B61">
+          <t>30015</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C61">
         <v>28</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1522,13 +1827,18 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B62">
+          <t>30016</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C62">
         <v>21</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1537,13 +1847,18 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B63">
+          <t>30017</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C63">
         <v>21</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1552,13 +1867,18 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B64">
+          <t>30018</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C64">
         <v>26</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1567,13 +1887,18 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B65">
+          <t>30019</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C65">
         <v>30</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1582,13 +1907,18 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B66">
+          <t>30020</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C66">
         <v>22</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1597,13 +1927,18 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B67">
+          <t>30021</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C67">
         <v>27</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1612,13 +1947,18 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B68">
+          <t>30022</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C68">
         <v>19</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1627,13 +1967,18 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B69">
+          <t>30024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C69">
         <v>25</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1642,13 +1987,18 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B70">
+          <t>30025</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C70">
         <v>21</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1657,13 +2007,18 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B71">
+          <t>30026</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C71">
         <v>30</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1672,13 +2027,18 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B72">
+          <t>30027</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C72">
         <v>19</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1687,13 +2047,18 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B73">
+          <t>30028</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C73">
         <v>24</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1702,13 +2067,18 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B74">
+          <t>30029</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C74">
         <v>22</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1717,13 +2087,18 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B75">
+          <t>30030</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C75">
         <v>30</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1732,13 +2107,18 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B76">
+          <t>30031</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C76">
         <v>24</v>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1747,13 +2127,18 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B77">
+          <t>30032</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C77">
         <v>21</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1762,13 +2147,18 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B78">
+          <t>30033</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C78">
         <v>36</v>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1777,13 +2167,18 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B79">
+          <t>30034</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C79">
         <v>23</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1792,13 +2187,18 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B80">
+          <t>30035</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C80">
         <v>23</v>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1807,13 +2207,18 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B81">
+          <t>30036</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C81">
         <v>19</v>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1822,13 +2227,18 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B82">
+          <t>30037</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C82">
         <v>22</v>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1837,13 +2247,18 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B83">
+          <t>30038</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C83">
         <v>35</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1852,13 +2267,18 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B84">
+          <t>30039</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C84">
         <v>25</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1867,13 +2287,18 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B85">
+          <t>30040</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C85">
         <v>36</v>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1882,13 +2307,18 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B86">
+          <t>30041</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C86">
         <v>22</v>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1897,13 +2327,18 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B87">
+          <t>30042</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C87">
         <v>22</v>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1912,13 +2347,18 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B88">
+          <t>30044</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C88">
         <v>24</v>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1927,13 +2367,18 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B89">
+          <t>30045</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C89">
         <v>30</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1942,13 +2387,18 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B90">
+          <t>30046</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C90">
         <v>25</v>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1957,13 +2407,18 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B91">
+          <t>30047</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C91">
         <v>24</v>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1972,13 +2427,18 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B92">
+          <t>30048</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C92">
         <v>28</v>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1987,13 +2447,18 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B93">
+          <t>30049</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C93">
         <v>24</v>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2002,13 +2467,18 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B94">
+          <t>30050</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C94">
         <v>24</v>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2017,13 +2487,18 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B95">
+          <t>30051</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C95">
         <v>25</v>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2032,13 +2507,18 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B96">
+          <t>30052</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C96">
         <v>21</v>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2047,13 +2527,18 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B97">
+          <t>30053</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C97">
         <v>22</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2062,13 +2547,18 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B98">
+          <t>30054</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C98">
         <v>20</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2077,13 +2567,18 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B99">
+          <t>30056</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C99">
         <v>29</v>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2092,13 +2587,18 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B100">
+          <t>30057</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C100">
         <v>19</v>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2107,13 +2607,18 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B101">
+          <t>30058</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C101">
         <v>22</v>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2122,13 +2627,18 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B102">
+          <t>30059</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C102">
         <v>23</v>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2137,13 +2647,18 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B103">
+          <t>30061</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C103">
         <v>22</v>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2152,13 +2667,18 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B104">
+          <t>30062</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C104">
         <v>22</v>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2167,13 +2687,18 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B105">
+          <t>30063</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C105">
         <v>19</v>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2182,13 +2707,18 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B106">
+          <t>30064</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C106">
         <v>19</v>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2197,13 +2727,18 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B107">
+          <t>30065</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C107">
         <v>20</v>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2212,13 +2747,18 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B108">
+          <t>30066</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C108">
         <v>27</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2227,13 +2767,18 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B109">
+          <t>30067</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C109">
         <v>21</v>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2242,13 +2787,18 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B110">
+          <t>30068</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C110">
         <v>20</v>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2257,13 +2807,18 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B111">
+          <t>30069</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C111">
         <v>21</v>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2272,13 +2827,18 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B112">
+          <t>30070</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C112">
         <v>20</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2287,13 +2847,18 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B113">
+          <t>30071</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C113">
         <v>25</v>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2302,13 +2867,18 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B114">
+          <t>30072</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C114">
         <v>25</v>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2317,13 +2887,18 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B115">
+          <t>30073</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C115">
         <v>26</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2332,13 +2907,18 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B116">
+          <t>30074</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C116">
         <v>19</v>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2347,13 +2927,18 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B117">
+          <t>30075</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C117">
         <v>26</v>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2362,13 +2947,18 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B118">
+          <t>30076</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C118">
         <v>24</v>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2377,13 +2967,18 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B119">
+          <t>30077</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C119">
         <v>20</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2392,13 +2987,18 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B120">
+          <t>30078</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C120">
         <v>21</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2407,13 +3007,18 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B121">
+          <t>30079</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C121">
         <v>21</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2422,13 +3027,18 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B122">
+          <t>30081</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C122">
         <v>22</v>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2437,13 +3047,18 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B123">
+          <t>30082</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C123">
         <v>22</v>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2452,13 +3067,18 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B124">
+          <t>30083</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C124">
         <v>29</v>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2467,13 +3087,18 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B125">
+          <t>30084</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C125">
         <v>24</v>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2482,13 +3107,18 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B126">
+          <t>30085</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C126">
         <v>24</v>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2497,13 +3127,18 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B127">
+          <t>30086</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C127">
         <v>25</v>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2512,13 +3147,18 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B128">
+          <t>30087</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C128">
         <v>28</v>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2527,13 +3167,18 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B129">
+          <t>30088</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C129">
         <v>27</v>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2542,13 +3187,18 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B130">
+          <t>30089</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C130">
         <v>18</v>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2557,13 +3207,18 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B131">
+          <t>30092</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C131">
         <v>23</v>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2572,13 +3227,18 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B132">
+          <t>30093</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C132">
         <v>22</v>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2587,13 +3247,18 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B133">
+          <t>30094</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C133">
         <v>22</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2602,13 +3267,18 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B134">
+          <t>30095</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C134">
         <v>28</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2617,13 +3287,18 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B135">
+          <t>30096</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C135">
         <v>23</v>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2632,13 +3307,18 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B136">
+          <t>30098</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C136">
         <v>28</v>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2647,13 +3327,18 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B137">
+          <t>30099</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C137">
         <v>27</v>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2662,13 +3347,18 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B138">
+          <t>30100</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C138">
         <v>27</v>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2677,13 +3367,18 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B139">
+          <t>30100</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C139">
         <v>26</v>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2692,13 +3387,18 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B140">
+          <t>30101</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C140">
         <v>32</v>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2707,10 +3407,15 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
+          <t>30102</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2719,13 +3424,18 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B142">
+          <t>30103</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C142">
         <v>23</v>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2734,13 +3444,18 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B143">
+          <t>30104</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C143">
         <v>18</v>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2749,13 +3464,18 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B144">
+          <t>30105</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C144">
         <v>22</v>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2764,13 +3484,18 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B145">
+          <t>30106</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C145">
         <v>18</v>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2779,13 +3504,18 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B146">
+          <t>30107</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C146">
         <v>18</v>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2794,13 +3524,18 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B147">
+          <t>30108</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C147">
         <v>21</v>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2809,13 +3544,18 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B148">
+          <t>30109</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C148">
         <v>21</v>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2824,13 +3564,18 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B149">
+          <t>30110</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C149">
         <v>18</v>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2839,13 +3584,18 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B150">
+          <t>30111</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C150">
         <v>26</v>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2854,13 +3604,18 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B151">
+          <t>30112</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C151">
         <v>25</v>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2869,13 +3624,18 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B152">
+          <t>30113</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C152">
         <v>23</v>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2884,13 +3644,18 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B153">
+          <t>30114</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C153">
         <v>18</v>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2899,13 +3664,18 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B154">
+          <t>30115</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C154">
         <v>18</v>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2914,13 +3684,18 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B155">
+          <t>30117</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C155">
         <v>23</v>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2929,13 +3704,18 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B156">
+          <t>30118</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C156">
         <v>23</v>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2944,13 +3724,18 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B157">
+          <t>30119</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C157">
         <v>30</v>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -2959,13 +3744,18 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B158">
+          <t>30120</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C158">
         <v>27</v>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2974,13 +3764,18 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B159">
+          <t>30121</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C159">
         <v>26</v>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -2989,13 +3784,18 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B160">
+          <t>30122</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C160">
         <v>21</v>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -3004,13 +3804,18 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B161">
+          <t>30123</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C161">
         <v>19</v>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3019,113 +3824,153 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B162">
-        <v>28</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>female</t>
+          <t>30124</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C162">
+        <v>27</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B163">
-        <v>37</v>
+          <t>30125</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C163">
+        <v>28</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
+          <t>4033</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B164">
-        <v>23</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C164">
+        <v>28</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>40001</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B165">
-        <v>19</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="C165">
+        <v>37</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
+          <t>40002</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B166">
-        <v>19</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C166">
+        <v>23</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>40003</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B167">
-        <v>32</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C167">
+        <v>19</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
+          <t>40004</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B168">
-        <v>43</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C168">
+        <v>19</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
+          <t>40005</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B169">
-        <v>24</v>
-      </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169">
+        <v>32</v>
+      </c>
+      <c r="D169" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3134,28 +3979,38 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
+          <t>40006</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B170">
-        <v>20</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C170">
+        <v>43</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>40007</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B171">
-        <v>29</v>
-      </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171">
+        <v>24</v>
+      </c>
+      <c r="D171" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3164,13 +4019,18 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
+          <t>40008</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B172">
-        <v>21</v>
-      </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172">
+        <v>20</v>
+      </c>
+      <c r="D172" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3179,13 +4039,18 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>40009</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B173">
-        <v>20</v>
-      </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173">
+        <v>29</v>
+      </c>
+      <c r="D173" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3194,13 +4059,18 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>40010</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>21</v>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3209,28 +4079,38 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
+          <t>40011</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B175">
-        <v>57</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C175">
+        <v>20</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
+          <t>40013</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B176">
-        <v>22</v>
-      </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176">
+        <v>21</v>
+      </c>
+      <c r="D176" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3239,43 +4119,58 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>40014</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B177">
-        <v>20</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C177">
+        <v>57</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
+          <t>40015</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B178">
-        <v>33</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C178">
+        <v>22</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
+          <t>40016</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B179">
-        <v>29</v>
-      </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179">
+        <v>20</v>
+      </c>
+      <c r="D179" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3284,43 +4179,58 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
+          <t>40017</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B180">
-        <v>21</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C180">
+        <v>33</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
+          <t>40018</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B181">
-        <v>38</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C181">
+        <v>29</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
+          <t>40019</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B182">
-        <v>28</v>
-      </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182">
+        <v>21</v>
+      </c>
+      <c r="D182" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3329,43 +4239,58 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
+          <t>40020</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B183">
-        <v>35</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C183">
+        <v>38</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
+          <t>40021</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B184">
-        <v>22</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C184">
+        <v>28</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>40022</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B185">
-        <v>21</v>
-      </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185">
+        <v>35</v>
+      </c>
+      <c r="D185" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3374,13 +4299,18 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>40023</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B186">
-        <v>18</v>
-      </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186">
+        <v>22</v>
+      </c>
+      <c r="D186" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -3389,73 +4319,98 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
+          <t>40024</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B187">
-        <v>26</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C187">
+        <v>21</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>40026</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B188">
-        <v>27</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C188">
+        <v>18</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>40027</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B189">
-        <v>24</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C189">
+        <v>26</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
+          <t>40028</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B190">
-        <v>32</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C190">
+        <v>27</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>40029</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B191">
-        <v>23</v>
-      </c>
-      <c r="C191" t="inlineStr">
+      <c r="C191">
+        <v>24</v>
+      </c>
+      <c r="D191" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3464,28 +4419,38 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
+          <t>40030</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B192">
-        <v>21</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C192">
+        <v>32</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
+          <t>40031</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B193">
-        <v>29</v>
-      </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193">
+        <v>23</v>
+      </c>
+      <c r="D193" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3494,13 +4459,18 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
+          <t>40032</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B194">
-        <v>20</v>
-      </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194">
+        <v>21</v>
+      </c>
+      <c r="D194" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3509,73 +4479,98 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
+          <t>40034</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B195">
-        <v>34</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C195">
+        <v>29</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
+          <t>40035</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B196">
-        <v>22</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C196">
+        <v>20</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
+          <t>40036</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B197">
-        <v>42</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C197">
+        <v>34</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
+          <t>40037</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B198">
-        <v>39</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C198">
+        <v>22</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
+          <t>40038</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B199">
-        <v>22</v>
-      </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199">
+        <v>42</v>
+      </c>
+      <c r="D199" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3584,13 +4579,18 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
+          <t>40039</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B200">
-        <v>28</v>
-      </c>
-      <c r="C200" t="inlineStr">
+      <c r="C200">
+        <v>39</v>
+      </c>
+      <c r="D200" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3599,28 +4599,38 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
+          <t>40040</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B201">
+      <c r="C201">
         <v>22</v>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
+          <t>40041</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B202">
-        <v>29</v>
-      </c>
-      <c r="C202" t="inlineStr">
+      <c r="C202">
+        <v>28</v>
+      </c>
+      <c r="D202" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3629,28 +4639,38 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
+          <t>40042</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B203">
-        <v>26</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C203">
+        <v>22</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>40043</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B204">
-        <v>25</v>
-      </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204">
+        <v>29</v>
+      </c>
+      <c r="D204" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3659,28 +4679,38 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
+          <t>40044</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B205">
-        <v>24</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C205">
+        <v>26</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
+          <t>40045</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B206">
-        <v>40</v>
-      </c>
-      <c r="C206" t="inlineStr">
+      <c r="C206">
+        <v>25</v>
+      </c>
+      <c r="D206" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3689,53 +4719,73 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
+          <t>40046</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B207">
-        <v>42</v>
+      <c r="C207">
+        <v>24</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
+          <t>40047</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B208">
-        <v>21</v>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C208">
+        <v>40</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
+          <t>40048</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B209">
-        <v>26</v>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C209">
+        <v>42</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
+          <t>40049</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B210">
-        <v>22</v>
-      </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210">
+        <v>21</v>
+      </c>
+      <c r="D210" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -3744,13 +4794,18 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
+          <t>40050</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B211">
-        <v>24</v>
-      </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211">
+        <v>26</v>
+      </c>
+      <c r="D211" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3759,28 +4814,38 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
+          <t>40051</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B212">
-        <v>25</v>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C212">
+        <v>22</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
+          <t>40052</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B213">
-        <v>25</v>
-      </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213">
+        <v>24</v>
+      </c>
+      <c r="D213" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3789,13 +4854,18 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
+          <t>40053</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B214">
-        <v>26</v>
-      </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214">
+        <v>25</v>
+      </c>
+      <c r="D214" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3804,43 +4874,58 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B215">
-        <v>24</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>male</t>
+          <t>40054</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C215">
+        <v>25</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B216">
-        <v>22</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>male</t>
+          <t>40055</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C216">
+        <v>26</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
+          <t>50001</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B217">
-        <v>37</v>
-      </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217">
+        <v>24</v>
+      </c>
+      <c r="D217" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -3849,28 +4934,38 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
+          <t>50002</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B218">
-        <v>29</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C218">
+        <v>22</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
+          <t>50003</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B219">
-        <v>24</v>
-      </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219">
+        <v>37</v>
+      </c>
+      <c r="D219" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -3879,43 +4974,58 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
+          <t>50004</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B220">
-        <v>39</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C220">
+        <v>29</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
+          <t>50005</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B221">
-        <v>25</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C221">
+        <v>24</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
+          <t>50006</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B222">
-        <v>25</v>
-      </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222">
+        <v>39</v>
+      </c>
+      <c r="D222" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -3924,28 +5034,38 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
+          <t>50007</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B223">
-        <v>23</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C223">
+        <v>25</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
+          <t>50008</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B224">
-        <v>21</v>
-      </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224">
+        <v>25</v>
+      </c>
+      <c r="D224" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -3954,43 +5074,58 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
+          <t>50009</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B225">
+      <c r="C225">
         <v>23</v>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
+          <t>50010</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B226">
-        <v>25</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C226">
+        <v>21</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
+          <t>50011</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B227">
-        <v>28</v>
-      </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227">
+        <v>23</v>
+      </c>
+      <c r="D227" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -3999,58 +5134,78 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
+          <t>50012</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B228">
-        <v>33</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C228">
+        <v>25</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
+          <t>50013</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B229">
-        <v>26</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C229">
+        <v>28</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
+          <t>50014</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B230">
-        <v>28</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C230">
+        <v>33</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
+          <t>50015</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B231">
-        <v>24</v>
-      </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231">
+        <v>26</v>
+      </c>
+      <c r="D231" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -4059,13 +5214,18 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
+          <t>50016</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B232">
-        <v>24</v>
-      </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232">
+        <v>28</v>
+      </c>
+      <c r="D232" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4074,28 +5234,38 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
+          <t>50017</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B233">
-        <v>39</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C233">
+        <v>24</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
+          <t>50018</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B234">
-        <v>23</v>
-      </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234">
+        <v>24</v>
+      </c>
+      <c r="D234" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4104,13 +5274,18 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
+          <t>50019</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B235">
+      <c r="C235">
         <v>39</v>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="D235" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4119,43 +5294,58 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
+          <t>50020</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B236">
+      <c r="C236">
         <v>23</v>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
+          <t>50021</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B237">
-        <v>20</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C237">
+        <v>39</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
+          <t>50022</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B238">
-        <v>31</v>
-      </c>
-      <c r="C238" t="inlineStr">
+      <c r="C238">
+        <v>23</v>
+      </c>
+      <c r="D238" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -4164,58 +5354,78 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
+          <t>50023</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B239">
+      <c r="C239">
         <v>20</v>
       </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
+          <t>50024</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B240">
-        <v>41</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C240">
+        <v>31</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
+          <t>50025</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B241">
-        <v>28</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C241">
+        <v>20</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
+          <t>50026</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B242">
-        <v>19</v>
-      </c>
-      <c r="C242" t="inlineStr">
+      <c r="C242">
+        <v>41</v>
+      </c>
+      <c r="D242" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4224,20 +5434,38 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
+          <t>50027</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="C243">
+        <v>28</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
+          <t>50028</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B244">
-        <v>25</v>
-      </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244">
+        <v>19</v>
+      </c>
+      <c r="D244" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4246,73 +5474,90 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
+          <t>50029</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="B245">
-        <v>32</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>male</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
+          <t>50030</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B246">
+      <c r="C246">
         <v>25</v>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
+          <t>50031</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B247">
-        <v>22</v>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C247">
+        <v>32</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
+          <t>50032</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B248">
-        <v>23</v>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C248">
+        <v>25</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
+          <t>50033</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B249">
-        <v>19</v>
-      </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249">
+        <v>22</v>
+      </c>
+      <c r="D249" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4321,43 +5566,58 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
+          <t>50034</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B250">
-        <v>25</v>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C250">
+        <v>23</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
+          <t>50035</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B251">
-        <v>24</v>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C251">
+        <v>19</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
+          <t>50036</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B252">
-        <v>18</v>
-      </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252">
+        <v>25</v>
+      </c>
+      <c r="D252" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -4366,43 +5626,58 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
+          <t>50037</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B253">
-        <v>25</v>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C253">
+        <v>24</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
+          <t>50038</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B254">
-        <v>27</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C254">
+        <v>18</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
+          <t>50039</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B255">
-        <v>29</v>
-      </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255">
+        <v>25</v>
+      </c>
+      <c r="D255" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4411,43 +5686,58 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
+          <t>50040</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B256">
-        <v>22</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C256">
+        <v>27</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
+          <t>50041</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B257">
-        <v>20</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C257">
+        <v>23</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
+          <t>50042</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B258">
-        <v>33</v>
-      </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258">
+        <v>35</v>
+      </c>
+      <c r="D258" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -4456,13 +5746,18 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
+          <t>50043</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B259">
-        <v>28</v>
-      </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259">
+        <v>20</v>
+      </c>
+      <c r="D259" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4471,28 +5766,38 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
+          <t>50044</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B260">
-        <v>23</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C260">
+        <v>24</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
+          <t>50202</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B261">
-        <v>21</v>
-      </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261">
+        <v>29</v>
+      </c>
+      <c r="D261" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4501,13 +5806,18 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B262">
-        <v>30</v>
-      </c>
-      <c r="C262" t="inlineStr">
+          <t>50203</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C262">
+        <v>22</v>
+      </c>
+      <c r="D262" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -4516,13 +5826,18 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B263">
-        <v>25</v>
-      </c>
-      <c r="C263" t="inlineStr">
+          <t>50204</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C263">
+        <v>20</v>
+      </c>
+      <c r="D263" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4531,28 +5846,38 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B264">
-        <v>25</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>female</t>
+          <t>50205</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C264">
+        <v>33</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B265">
-        <v>25</v>
-      </c>
-      <c r="C265" t="inlineStr">
+          <t>50206</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C265">
+        <v>28</v>
+      </c>
+      <c r="D265" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4561,28 +5886,38 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B266">
-        <v>30</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>female</t>
+          <t>50207</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C266">
+        <v>23</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B267">
-        <v>29</v>
-      </c>
-      <c r="C267" t="inlineStr">
+          <t>50208</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C267">
+        <v>21</v>
+      </c>
+      <c r="D267" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4591,43 +5926,58 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
+          <t>70003</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B268">
-        <v>28</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C268">
+        <v>30</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
+          <t>70004</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B269">
+      <c r="C269">
         <v>25</v>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
+          <t>70005</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B270">
-        <v>27</v>
-      </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270">
+        <v>25</v>
+      </c>
+      <c r="D270" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4636,13 +5986,18 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
+          <t>70006</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B271">
-        <v>27</v>
-      </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271">
+        <v>25</v>
+      </c>
+      <c r="D271" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4651,13 +6006,18 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
+          <t>70007</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B272">
-        <v>27</v>
-      </c>
-      <c r="C272" t="inlineStr">
+      <c r="C272">
+        <v>30</v>
+      </c>
+      <c r="D272" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4666,13 +6026,18 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
+          <t>70009</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B273">
-        <v>26</v>
-      </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273">
+        <v>29</v>
+      </c>
+      <c r="D273" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4681,58 +6046,78 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
+          <t>70010</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B274">
+      <c r="C274">
         <v>28</v>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
+          <t>70011</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B275">
+      <c r="C275">
         <v>25</v>
       </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
+          <t>70012</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B276">
-        <v>28</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C276">
+        <v>27</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
+          <t>70013</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B277">
-        <v>25</v>
-      </c>
-      <c r="C277" t="inlineStr">
+      <c r="C277">
+        <v>27</v>
+      </c>
+      <c r="D277" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4741,28 +6126,38 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
+          <t>70014</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B278">
-        <v>25</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C278">
+        <v>27</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
+          <t>70018</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B279">
-        <v>27</v>
-      </c>
-      <c r="C279" t="inlineStr">
+      <c r="C279">
+        <v>26</v>
+      </c>
+      <c r="D279" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4771,28 +6166,38 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
+          <t>70020</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B280">
-        <v>26</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C280">
+        <v>28</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
+          <t>70021</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B281">
-        <v>28</v>
-      </c>
-      <c r="C281" t="inlineStr">
+      <c r="C281">
+        <v>25</v>
+      </c>
+      <c r="D281" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4801,73 +6206,98 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
+          <t>70024</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B282">
-        <v>29</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C282">
+        <v>28</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
+          <t>70025</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B283">
+      <c r="C283">
         <v>25</v>
       </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
+          <t>70028</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B284">
-        <v>30</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C284">
+        <v>25</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
+          <t>70029</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B285">
-        <v>25</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C285">
+        <v>27</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
+          <t>70030</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B286">
-        <v>25</v>
-      </c>
-      <c r="C286" t="inlineStr">
+      <c r="C286">
+        <v>26</v>
+      </c>
+      <c r="D286" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4876,13 +6306,18 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
+          <t>70035</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B287">
-        <v>25</v>
-      </c>
-      <c r="C287" t="inlineStr">
+      <c r="C287">
+        <v>28</v>
+      </c>
+      <c r="D287" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4891,13 +6326,18 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
+          <t>70040</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B288">
-        <v>27</v>
-      </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288">
+        <v>29</v>
+      </c>
+      <c r="D288" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4906,28 +6346,38 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
+          <t>70041</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B289">
-        <v>30</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C289">
+        <v>25</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
+          <t>70049</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B290">
-        <v>26</v>
-      </c>
-      <c r="C290" t="inlineStr">
+      <c r="C290">
+        <v>30</v>
+      </c>
+      <c r="D290" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4936,13 +6386,18 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
+          <t>70054</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B291">
-        <v>29</v>
-      </c>
-      <c r="C291" t="inlineStr">
+      <c r="C291">
+        <v>25</v>
+      </c>
+      <c r="D291" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -4951,28 +6406,38 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
+          <t>70055</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B292">
-        <v>29</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C292">
+        <v>25</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
+          <t>70059</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B293">
-        <v>26</v>
-      </c>
-      <c r="C293" t="inlineStr">
+      <c r="C293">
+        <v>25</v>
+      </c>
+      <c r="D293" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -4981,43 +6446,58 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
+          <t>70060</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B294">
-        <v>28</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C294">
+        <v>27</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
+          <t>70061</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B295">
-        <v>27</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>male</t>
+      <c r="C295">
+        <v>30</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
+          <t>70067</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B296">
-        <v>29</v>
-      </c>
-      <c r="C296" t="inlineStr">
+      <c r="C296">
+        <v>26</v>
+      </c>
+      <c r="D296" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -5026,28 +6506,38 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
+          <t>70079</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B297">
-        <v>28</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="C297">
+        <v>29</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
+          <t>70080</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B298">
-        <v>28</v>
-      </c>
-      <c r="C298" t="inlineStr">
+      <c r="C298">
+        <v>29</v>
+      </c>
+      <c r="D298" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -5056,208 +6546,218 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
+          <t>70082</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B299">
-        <v>28</v>
+      <c r="C299">
+        <v>26</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B300">
-        <v>18</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+          <t>70095</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C300">
+        <v>28</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B301">
-        <v>31</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+          <t>70096</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C301">
+        <v>27</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B302">
-        <v>23</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+          <t>70097</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C302">
+        <v>29</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B303">
-        <v>24</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+          <t>70101</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C303">
+        <v>28</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B304">
-        <v>42</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+          <t>70103</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C304">
+        <v>28</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B305">
-        <v>29</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
+          <t>70111</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C305">
+        <v>28</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B306">
-        <v>19</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+          <t>70129</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C306">
+        <v>27</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B307">
-        <v>29</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+          <t>70130</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C307">
+        <v>27</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>female</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B308">
-        <v>30</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+          <t>70134</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C308">
+        <v>25</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
+          <t>80002</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B309">
-        <v>19</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C309">
+        <v>18</v>
       </c>
       <c r="D309" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -5266,18 +6766,23 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
+          <t>80003</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B310">
-        <v>26</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="C310">
+        <v>31</v>
       </c>
       <c r="D310" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -5286,18 +6791,23 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
+          <t>80004</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B311">
-        <v>27</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C311">
+        <v>23</v>
       </c>
       <c r="D311" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -5306,18 +6816,23 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
+          <t>80005</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B312">
-        <v>19</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C312">
+        <v>24</v>
       </c>
       <c r="D312" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -5326,18 +6841,23 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
+          <t>80006</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B313">
-        <v>22</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="C313">
+        <v>42</v>
       </c>
       <c r="D313" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -5346,18 +6866,23 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
+          <t>80007</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B314">
-        <v>25</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C314">
+        <v>29</v>
       </c>
       <c r="D314" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -5366,18 +6891,23 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
+          <t>80008</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B315">
+      <c r="C315">
         <v>19</v>
       </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="D315" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -5386,18 +6916,23 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
+          <t>80010</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B316">
-        <v>19</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C316">
+        <v>29</v>
       </c>
       <c r="D316" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -5406,18 +6941,23 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
+          <t>80011</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B317">
-        <v>27</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C317">
+        <v>30</v>
       </c>
       <c r="D317" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -5426,18 +6966,23 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
+          <t>80011</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B318">
-        <v>42</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C318">
+        <v>19</v>
       </c>
       <c r="D318" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -5446,18 +6991,23 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
+          <t>80012</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B319">
-        <v>18</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C319">
+        <v>26</v>
       </c>
       <c r="D319" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -5466,18 +7016,23 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
+          <t>80013</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B320">
-        <v>18</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C320">
+        <v>27</v>
       </c>
       <c r="D320" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
@@ -5486,258 +7041,323 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
+          <t>80014</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B321">
-        <v>24</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C321">
+        <v>19</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
+          <t>80015</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B322">
-        <v>28</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C322">
+        <v>22</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
+          <t>80016</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B323">
-        <v>30</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C323">
+        <v>25</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
+          <t>80017</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B324">
-        <v>20</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="C324">
+        <v>19</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
+          <t>80019</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B325">
-        <v>36</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C325">
+        <v>19</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
+          <t>80020</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B326">
-        <v>52</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C326">
+        <v>27</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
+          <t>80021</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B327">
-        <v>30</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="C327">
+        <v>42</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
+          <t>80022</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B328">
-        <v>28</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C328">
+        <v>18</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
+          <t>80023</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B329">
-        <v>37</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C329">
+        <v>18</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
+          <t>80024</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B330">
-        <v>26</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="C330">
+        <v>24</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
+          <t>80025</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B331">
-        <v>39</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="C331">
+        <v>28</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
+          <t>80026</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B332">
-        <v>58</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="C332">
+        <v>30</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
+          <t>80027</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B333">
-        <v>23</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="C333">
+        <v>20</v>
       </c>
       <c r="D333" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -5746,98 +7366,123 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
+          <t>80028</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B334">
+      <c r="C334">
         <v>36</v>
       </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
+          <t>80029</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B335">
-        <v>43</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="C335">
+        <v>52</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
+          <t>80031</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B336">
-        <v>25</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="C336">
+        <v>30</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
+          <t>80032</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B337">
-        <v>32</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="C337">
+        <v>28</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>patient</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B338">
-        <v>32</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+          <t>80033</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C338">
+        <v>37</v>
       </c>
       <c r="D338" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -5846,90 +7491,123 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
+          <t>80034</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C339">
+        <v>26</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B340">
-        <v>25</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+          <t>80035</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C340">
+        <v>39</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B341">
-        <v>59</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+          <t>80038</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C341">
+        <v>37</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B342">
-        <v>25</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+          <t>80039</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C342">
+        <v>58</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B343">
-        <v>26</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+          <t>80040</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C343">
+        <v>23</v>
       </c>
       <c r="D343" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
         <is>
           <t>patient</t>
         </is>
@@ -5938,60 +7616,424 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B344">
-        <v>35</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+          <t>80041</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C344">
+        <v>36</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B345">
-        <v>40</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+          <t>80043</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C345">
+        <v>43</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>HC</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
+          <t>80044</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C346">
+        <v>51</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>80045</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C347">
+        <v>25</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>80046</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C348">
+        <v>32</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>80050</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>90001</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B346">
+      <c r="C350">
+        <v>32</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>90002</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>90003</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C352">
+        <v>25</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>90004</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C353">
+        <v>59</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>90005</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C354">
+        <v>25</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>90006</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C355">
+        <v>26</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>90007</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C356">
+        <v>35</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>90009</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C357">
         <v>40</v>
       </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
         <is>
           <t>patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>90010</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C358">
+        <v>40</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>90011</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C359">
+        <v>41</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>90014</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C360">
+        <v>59</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>90018</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C361">
+        <v>28</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>male</t>
         </is>
       </c>
     </row>
